--- a/results/results-nh.xlsx
+++ b/results/results-nh.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27960" windowHeight="21600" tabRatio="895" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="38400" windowHeight="24000" tabRatio="984" firstSheet="6" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="NH Ctrl 50 Nodes AZ" sheetId="1" r:id="rId1"/>
-    <sheet name="Ctrl 50 nodes RS" sheetId="2" r:id="rId2"/>
-    <sheet name="Ctrl 50 nodes Local" sheetId="3" r:id="rId3"/>
-    <sheet name="Ctrl 50 nodes analysis" sheetId="4" r:id="rId4"/>
-    <sheet name="Redact 50 nodes AZ" sheetId="5" r:id="rId5"/>
-    <sheet name="Redact 50 nodes RS" sheetId="6" r:id="rId6"/>
+    <sheet name="NH Ctrl 50 nodes RS" sheetId="2" r:id="rId2"/>
+    <sheet name="NH Ctrl 50 nodes Local" sheetId="3" r:id="rId3"/>
+    <sheet name="NH Ctrl 50 nodes analysis" sheetId="4" r:id="rId4"/>
+    <sheet name="NH Redact 50 nodes AZ" sheetId="5" r:id="rId5"/>
+    <sheet name="NH Redact 50 nodes RS" sheetId="6" r:id="rId6"/>
     <sheet name="NH Redact 50 nodes Local" sheetId="7" r:id="rId7"/>
-    <sheet name="Redact 50 nodes Analysis" sheetId="8" r:id="rId8"/>
-    <sheet name="Reroute 50 nodes AZ" sheetId="9" r:id="rId9"/>
-    <sheet name="Reroute 50 nodes RS" sheetId="10" r:id="rId10"/>
-    <sheet name="Reroute 50 nodes Local" sheetId="11" r:id="rId11"/>
-    <sheet name="Reroute 50 nodes Analysis" sheetId="12" r:id="rId12"/>
-    <sheet name="Encrypt 50 nodes AZ" sheetId="15" r:id="rId13"/>
-    <sheet name="Encrypt 50 nodes RS" sheetId="16" r:id="rId14"/>
-    <sheet name="Encrypt 50 nodes Local" sheetId="17" r:id="rId15"/>
-    <sheet name="Encrypt 50 nodes Analysis" sheetId="18" r:id="rId16"/>
+    <sheet name="NH Redact 50 nodes Analysis" sheetId="8" r:id="rId8"/>
+    <sheet name="NH Reroute 50 nodes AZ" sheetId="9" r:id="rId9"/>
+    <sheet name="NH Reroute 50 nodes RS" sheetId="10" r:id="rId10"/>
+    <sheet name="NH Reroute 50 nodes Local" sheetId="11" r:id="rId11"/>
+    <sheet name="NH Reroute 50 nodes Analysis" sheetId="12" r:id="rId12"/>
+    <sheet name="NH Encrypt 50 nodes AZ" sheetId="15" r:id="rId13"/>
+    <sheet name="NH Encrypt 50 nodes RS" sheetId="16" r:id="rId14"/>
+    <sheet name="NH Encrypt 50 nodes Local" sheetId="17" r:id="rId15"/>
+    <sheet name="NH Encrypt 50 nodes Analysis" sheetId="18" r:id="rId16"/>
     <sheet name="Results Summary" sheetId="13" r:id="rId17"/>
     <sheet name="Mean Tables" sheetId="14" r:id="rId18"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="48">
   <si>
     <t>Run: 1</t>
   </si>
@@ -240,8 +240,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -304,7 +334,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -333,6 +363,21 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -361,6 +406,21 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,7 +559,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$J$9</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -515,7 +575,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -538,7 +598,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$J$10:$J$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$10:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -552,7 +612,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$K$9</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -568,7 +628,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -591,7 +651,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$K$10:$K$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$10:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -605,7 +665,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$L$9</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -621,7 +681,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -644,7 +704,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$L$10:$L$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$10:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -795,6 +855,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -834,7 +895,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$J$9</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -850,7 +911,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -873,7 +934,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$J$10:$J$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$10:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -887,7 +948,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$K$9</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -903,7 +964,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -926,7 +987,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$K$10:$K$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$10:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -940,7 +1001,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$L$9</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -956,7 +1017,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -979,7 +1040,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$L$10:$L$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$10:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1049,6 +1110,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1086,6 +1148,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1128,6 +1191,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1167,7 +1231,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$J$16</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1183,7 +1247,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1206,7 +1270,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$J$17:$J$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$17:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1220,7 +1284,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$K$16</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1236,7 +1300,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1259,7 +1323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$K$17:$K$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$17:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1273,7 +1337,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$L$16</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1289,7 +1353,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1312,7 +1376,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$L$17:$L$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$17:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1382,6 +1446,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1419,6 +1484,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1500,7 +1566,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$J$2</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1516,7 +1582,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1539,7 +1605,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$J$3:$J$7</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1553,7 +1619,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$K$2</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1569,7 +1635,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1592,7 +1658,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$K$3:$K$7</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$3:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1606,7 +1672,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$L$2</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1622,7 +1688,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1645,7 +1711,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$L$3:$L$7</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1824,6 +1890,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1863,7 +1930,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$J$9</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$J$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1879,7 +1946,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1902,7 +1969,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$J$10:$J$14</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$J$10:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1916,7 +1983,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$K$9</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$K$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1932,7 +1999,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1955,7 +2022,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$K$10:$K$14</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$K$10:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1969,7 +2036,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$L$9</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$L$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1985,7 +2052,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2008,7 +2075,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$L$10:$L$14</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$L$10:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2078,6 +2145,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2115,6 +2183,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2157,6 +2226,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2196,7 +2266,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$J$16</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$J$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2212,7 +2282,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2235,7 +2305,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$J$17:$J$21</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$J$17:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2249,7 +2319,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$K$16</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2265,7 +2335,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2288,7 +2358,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$K$17:$K$21</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$K$17:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2302,7 +2372,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$L$16</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2318,7 +2388,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2341,7 +2411,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$L$17:$L$21</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$L$17:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2411,6 +2481,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2448,6 +2519,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2534,7 +2606,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$J$2</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2550,7 +2622,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2573,7 +2645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$J$3:$J$7</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2587,7 +2659,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$K$2</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2603,7 +2675,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2626,7 +2698,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$K$3:$K$7</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$K$3:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2640,7 +2712,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$L$2</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2656,7 +2728,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2679,7 +2751,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$L$3:$L$7</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2860,6 +2932,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2899,7 +2972,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$J$9</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$J$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2915,7 +2988,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2938,7 +3011,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$J$10:$J$14</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$J$10:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2952,7 +3025,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$K$9</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$K$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2968,7 +3041,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2991,7 +3064,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$K$10:$K$14</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$K$10:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3005,7 +3078,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$L$9</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$L$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3021,7 +3094,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3044,7 +3117,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$L$10:$L$14</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$L$10:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3114,6 +3187,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3151,6 +3225,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3193,6 +3268,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3232,7 +3308,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$J$16</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$J$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3248,7 +3324,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3271,7 +3347,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$J$17:$J$21</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$J$17:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3285,7 +3361,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$K$16</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3301,7 +3377,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3324,7 +3400,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$K$17:$K$21</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$K$17:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3338,7 +3414,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$L$16</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3354,7 +3430,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3377,7 +3453,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$L$17:$L$21</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$L$17:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3447,6 +3523,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3484,6 +3561,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3570,7 +3648,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$J$2</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3586,7 +3664,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3609,7 +3687,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$J$3:$J$7</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3623,7 +3701,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$K$2</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3639,7 +3717,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3662,7 +3740,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$K$3:$K$7</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$K$3:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3676,7 +3754,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$L$2</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3692,7 +3770,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3715,7 +3793,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$L$3:$L$7</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3927,7 +4005,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mean Tables'!$C$31</c:f>
+              <c:f>'Mean Tables'!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3939,47 +4017,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mean Tables'!$B$32:$B$36</c:f>
+              <c:f>'Mean Tables'!$B$14:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mean Tables'!$C$32:$C$36</c:f>
+              <c:f>'Mean Tables'!$C$14:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00991622172</c:v>
+                  <c:v>0.01096146004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02927824412</c:v>
+                  <c:v>0.02407365248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0647298902</c:v>
+                  <c:v>0.04928455626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2506058768</c:v>
+                  <c:v>0.25600332422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22761147818</c:v>
+                  <c:v>0.24416588246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2322774088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3990,7 +4074,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mean Tables'!$D$31</c:f>
+              <c:f>'Mean Tables'!$D$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4002,47 +4086,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mean Tables'!$B$32:$B$36</c:f>
+              <c:f>'Mean Tables'!$B$14:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mean Tables'!$D$32:$D$36</c:f>
+              <c:f>'Mean Tables'!$D$14:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.01071645118</c:v>
+                  <c:v>0.0110466903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03788931018</c:v>
+                  <c:v>0.03625026858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06698253584</c:v>
+                  <c:v>0.05918069726</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27692332688</c:v>
+                  <c:v>0.54959386406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2508308313</c:v>
+                  <c:v>0.2915889462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24243601756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4053,7 +4143,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mean Tables'!$E$31</c:f>
+              <c:f>'Mean Tables'!$E$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4065,47 +4155,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mean Tables'!$B$32:$B$36</c:f>
+              <c:f>'Mean Tables'!$B$14:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mean Tables'!$E$32:$E$36</c:f>
+              <c:f>'Mean Tables'!$E$14:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.01056530686</c:v>
+                  <c:v>0.01023016552</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0235979468</c:v>
+                  <c:v>0.0397800952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05092039614</c:v>
+                  <c:v>0.05971527018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2568906612</c:v>
+                  <c:v>0.25235792352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22581137284</c:v>
+                  <c:v>0.22385440124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23022601896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4116,7 +4212,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mean Tables'!$F$31</c:f>
+              <c:f>'Mean Tables'!$F$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4128,47 +4224,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mean Tables'!$B$32:$B$36</c:f>
+              <c:f>'Mean Tables'!$B$14:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mean Tables'!$F$32:$F$36</c:f>
+              <c:f>'Mean Tables'!$F$14:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.00827325436</c:v>
+                  <c:v>0.0082432615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02420423402</c:v>
+                  <c:v>0.02933139364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05735084384</c:v>
+                  <c:v>0.05652883078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26649778978</c:v>
+                  <c:v>0.29239136986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2436560111</c:v>
+                  <c:v>0.2446902263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24413413988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4324,7 +4426,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$J$16</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4340,7 +4442,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4363,7 +4465,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$J$17:$J$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$17:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4377,7 +4479,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$K$16</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4393,7 +4495,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4416,7 +4518,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$K$17:$K$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$17:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4430,7 +4532,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$L$16</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4446,7 +4548,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4469,7 +4571,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$L$17:$L$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$17:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4647,7 +4749,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mean Tables'!$C$38</c:f>
+              <c:f>'Mean Tables'!$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4659,47 +4761,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mean Tables'!$B$39:$B$43</c:f>
+              <c:f>'Mean Tables'!$B$22:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mean Tables'!$C$39:$C$43</c:f>
+              <c:f>'Mean Tables'!$C$22:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.08578272502</c:v>
+                  <c:v>0.08465270206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09796576958</c:v>
+                  <c:v>0.09660357998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12692641078</c:v>
+                  <c:v>0.1179329091</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15539155628</c:v>
+                  <c:v>0.1522166741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15588844494</c:v>
+                  <c:v>0.18383345304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1553539523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4710,7 +4818,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mean Tables'!$D$38</c:f>
+              <c:f>'Mean Tables'!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4722,47 +4830,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mean Tables'!$B$39:$B$43</c:f>
+              <c:f>'Mean Tables'!$B$22:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mean Tables'!$D$39:$D$43</c:f>
+              <c:f>'Mean Tables'!$D$22:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.08516860618</c:v>
+                  <c:v>0.0843342619</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1149295936</c:v>
+                  <c:v>0.41432933682</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13324864868</c:v>
+                  <c:v>0.15177250044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17383598898</c:v>
+                  <c:v>0.17972992738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16936878186</c:v>
+                  <c:v>0.21550221752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17418574266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4773,7 +4887,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mean Tables'!$E$38</c:f>
+              <c:f>'Mean Tables'!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4785,47 +4899,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mean Tables'!$B$39:$B$43</c:f>
+              <c:f>'Mean Tables'!$B$22:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mean Tables'!$E$39:$E$43</c:f>
+              <c:f>'Mean Tables'!$E$22:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.086437207</c:v>
+                  <c:v>0.08666710514</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.09790204714</c:v>
+                  <c:v>0.09541169308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1216383452</c:v>
+                  <c:v>0.11671520152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1548745419</c:v>
+                  <c:v>0.15054271322</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15318795518</c:v>
+                  <c:v>0.15400662966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15476326308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4836,7 +4956,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mean Tables'!$F$38</c:f>
+              <c:f>'Mean Tables'!$F$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4848,47 +4968,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mean Tables'!$B$39:$B$43</c:f>
+              <c:f>'Mean Tables'!$B$22:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mean Tables'!$F$39:$F$43</c:f>
+              <c:f>'Mean Tables'!$F$22:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0833727414</c:v>
+                  <c:v>0.08478962996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11053703596</c:v>
+                  <c:v>0.1101148143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14222670912</c:v>
+                  <c:v>0.12522771098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16849799864</c:v>
+                  <c:v>0.16377867572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17064873444</c:v>
+                  <c:v>0.163998724</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17108408588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5026,7 +5152,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mean Tables'!$C$45</c:f>
+              <c:f>'Mean Tables'!$C$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5038,47 +5164,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mean Tables'!$B$46:$B$50</c:f>
+              <c:f>'Mean Tables'!$B$30:$B$35</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mean Tables'!$C$46:$C$50</c:f>
+              <c:f>'Mean Tables'!$C$30:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.23955230106</c:v>
+                  <c:v>0.24522775784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35825068188</c:v>
+                  <c:v>0.23532646012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30044313206</c:v>
+                  <c:v>0.32553039596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27823622174</c:v>
+                  <c:v>0.27001316872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26823443058</c:v>
+                  <c:v>0.23374377758</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26169436482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5089,7 +5221,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mean Tables'!$D$45</c:f>
+              <c:f>'Mean Tables'!$D$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5101,47 +5233,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mean Tables'!$B$46:$B$50</c:f>
+              <c:f>'Mean Tables'!$B$30:$B$35</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mean Tables'!$D$46:$D$50</c:f>
+              <c:f>'Mean Tables'!$D$30:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.30459413728</c:v>
+                  <c:v>0.24573853024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3197039275</c:v>
+                  <c:v>0.25515304172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35659823244</c:v>
+                  <c:v>0.3349353753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2794003606</c:v>
+                  <c:v>0.29679446012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28068251052</c:v>
+                  <c:v>0.24982242558</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27490979028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5152,7 +5290,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mean Tables'!$E$45</c:f>
+              <c:f>'Mean Tables'!$E$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5164,47 +5302,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mean Tables'!$B$46:$B$50</c:f>
+              <c:f>'Mean Tables'!$B$30:$B$35</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mean Tables'!$E$46:$E$50</c:f>
+              <c:f>'Mean Tables'!$E$30:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.33364643932</c:v>
+                  <c:v>0.2421996325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36301413342</c:v>
+                  <c:v>0.21606388286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38890592508</c:v>
+                  <c:v>0.31078113324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28711691976</c:v>
+                  <c:v>0.27588569924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28859551604</c:v>
+                  <c:v>0.27127105772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2632906407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5215,7 +5359,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mean Tables'!$F$45</c:f>
+              <c:f>'Mean Tables'!$F$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5227,47 +5371,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Mean Tables'!$B$46:$B$50</c:f>
+              <c:f>'Mean Tables'!$B$30:$B$35</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Mean Tables'!$F$46:$F$50</c:f>
+              <c:f>'Mean Tables'!$F$30:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.19120752</c:v>
+                  <c:v>0.27330368486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20963492</c:v>
+                  <c:v>0.2780903017</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24192332</c:v>
+                  <c:v>0.32348425134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26158208</c:v>
+                  <c:v>0.29073236666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27357608</c:v>
+                  <c:v>0.24481558456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28876503014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5423,7 +5573,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$J$2</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5439,7 +5589,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5462,7 +5612,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$J$3:$J$7</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5476,7 +5626,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$K$2</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5492,7 +5642,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5515,7 +5665,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$K$3:$K$7</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$3:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5529,7 +5679,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$L$2</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5545,7 +5695,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Ctrl 50 nodes analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5568,7 +5718,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ctrl 50 nodes analysis'!$L$3:$L$7</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5759,7 +5909,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$J$9</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$J$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5775,7 +5925,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5798,7 +5948,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$J$10:$J$14</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$J$10:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5812,7 +5962,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$K$9</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$K$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5828,7 +5978,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5851,7 +6001,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$K$10:$K$14</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$K$10:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5865,7 +6015,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$L$9</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$L$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5881,7 +6031,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5904,7 +6054,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$L$10:$L$14</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$L$10:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6095,7 +6245,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$J$16</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$J$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6111,7 +6261,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6134,7 +6284,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$J$17:$J$21</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$J$17:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6148,7 +6298,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$K$16</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6164,7 +6314,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6187,7 +6337,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$K$17:$K$21</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$K$17:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6201,7 +6351,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$L$16</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6217,7 +6367,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6240,7 +6390,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$L$17:$L$21</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$L$17:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6431,7 +6581,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$J$2</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6447,7 +6597,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6470,7 +6620,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$J$3:$J$7</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6484,7 +6634,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$K$2</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6500,7 +6650,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6523,7 +6673,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$K$3:$K$7</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$K$3:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6537,7 +6687,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$L$2</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6553,7 +6703,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Redact 50 nodes Analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6576,7 +6726,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Redact 50 nodes Analysis'!$L$3:$L$7</c:f>
+              <c:f>'NH Redact 50 nodes Analysis'!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6767,7 +6917,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$J$9</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$J$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6783,7 +6933,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6806,7 +6956,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$J$10:$J$14</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$J$10:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6820,7 +6970,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$K$9</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$K$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6836,7 +6986,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6859,7 +7009,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$K$10:$K$14</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$K$10:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6873,7 +7023,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$L$9</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$L$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6889,7 +7039,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$10:$I$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6912,7 +7062,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$L$10:$L$14</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$L$10:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7103,7 +7253,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$J$16</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$J$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7119,7 +7269,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7142,7 +7292,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$J$17:$J$21</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$J$17:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7156,7 +7306,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$K$16</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7172,7 +7322,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7195,7 +7345,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$K$17:$K$21</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$K$17:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7209,7 +7359,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$L$16</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7225,7 +7375,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$17:$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7248,7 +7398,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$L$17:$L$21</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$L$17:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7439,7 +7589,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$J$2</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7455,7 +7605,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7478,7 +7628,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$J$3:$J$7</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7492,7 +7642,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$K$2</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7508,7 +7658,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7531,7 +7681,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$K$3:$K$7</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$K$3:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7545,7 +7695,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$L$2</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7561,7 +7711,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Reroute 50 nodes Analysis'!$I$3:$I$7</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7584,7 +7734,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Reroute 50 nodes Analysis'!$L$3:$L$7</c:f>
+              <c:f>'NH Reroute 50 nodes Analysis'!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -8284,7 +8434,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>467360</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>5080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8308,13 +8458,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>20320</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>477520</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8344,7 +8494,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>467360</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8692,7 +8842,7 @@
   <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD24"/>
+      <selection activeCell="B19" sqref="B19:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -10286,7 +10436,7 @@
   <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:XFD16"/>
+      <selection activeCell="B19" sqref="B19:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -11374,7 +11524,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -11392,7 +11542,7 @@
   <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:XFD16"/>
+      <selection activeCell="B19" sqref="B19:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -12641,7 +12791,7 @@
   <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD16"/>
+      <selection activeCell="B19" sqref="B19:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -13743,7 +13893,7 @@
   <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="B19" sqref="B19:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -14844,8 +14994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -16833,181 +16983,148 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:F50"/>
+  <dimension ref="B13:F35"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>9.91622172E-3</v>
-      </c>
-      <c r="D8">
-        <v>8.5782725020000006E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.23955230106</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>2.9278244120000001E-2</v>
-      </c>
-      <c r="D9">
-        <v>9.7965769580000001E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.35825068187999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>6.4729890200000001E-2</v>
-      </c>
-      <c r="D10">
-        <v>0.12692641078</v>
-      </c>
-      <c r="E10">
-        <v>0.30044313206000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>0.25060587680000002</v>
-      </c>
-      <c r="D11">
-        <v>0.15539155628000001</v>
-      </c>
-      <c r="E11">
-        <v>0.27823622174000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>0.22761147817999999</v>
-      </c>
-      <c r="D12">
-        <v>0.15588844494000001</v>
-      </c>
-      <c r="E12">
-        <v>0.26823443058000002</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="C14">
+        <v>1.0961460039999999E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.1046690300000002E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.0230165519999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>8.2432614999999997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C15">
-        <v>1.0716451179999999E-2</v>
+        <v>2.4073652480000006E-2</v>
       </c>
       <c r="D15">
-        <v>8.5168606179999995E-2</v>
+        <v>3.6250268580000015E-2</v>
       </c>
       <c r="E15">
-        <v>0.30459413728000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+        <v>3.9780095199999997E-2</v>
+      </c>
+      <c r="F15">
+        <v>2.9331393640000005E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>3.7889310180000003E-2</v>
+        <v>4.9284556260000015E-2</v>
       </c>
       <c r="D16">
-        <v>0.1149295936</v>
+        <v>5.9180697260000005E-2</v>
       </c>
       <c r="E16">
-        <v>0.31970392749999998</v>
+        <v>5.9715270180000009E-2</v>
+      </c>
+      <c r="F16">
+        <v>5.6528830780000004E-2</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>6.6982535839999996E-2</v>
+        <v>0.25600332421999994</v>
       </c>
       <c r="D17">
-        <v>0.13324864868</v>
+        <v>0.54959386405999999</v>
       </c>
       <c r="E17">
-        <v>0.35659823244</v>
+        <v>0.25235792352000003</v>
+      </c>
+      <c r="F17">
+        <v>0.29239136985999997</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>0.27692332687999999</v>
+        <v>0.24416588246000007</v>
       </c>
       <c r="D18">
-        <v>0.17383598897999999</v>
+        <v>0.29158894619999992</v>
       </c>
       <c r="E18">
-        <v>0.27940036060000001</v>
+        <v>0.22385440124000006</v>
+      </c>
+      <c r="F18">
+        <v>0.24469022630000001</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C19">
-        <v>0.2508308313</v>
+        <v>0.23227740880000003</v>
       </c>
       <c r="D19">
-        <v>0.16936878186000001</v>
+        <v>0.24243601755999999</v>
       </c>
       <c r="E19">
-        <v>0.28068251051999998</v>
+        <v>0.23022601895999997</v>
+      </c>
+      <c r="F19">
+        <v>0.24413413988000002</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
         <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -17015,375 +17132,220 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>1.056530686E-2</v>
+        <v>8.4652702060000001E-2</v>
       </c>
       <c r="D22">
-        <v>8.6437207000000002E-2</v>
+        <v>8.4334261899999985E-2</v>
       </c>
       <c r="E22">
-        <v>0.33364643931999999</v>
+        <v>8.6667105139999978E-2</v>
+      </c>
+      <c r="F22">
+        <v>8.4789629959999988E-2</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C23">
-        <v>2.3597946799999998E-2</v>
+        <v>9.6603579980000021E-2</v>
       </c>
       <c r="D23">
-        <v>9.7902047140000004E-2</v>
+        <v>0.41432933682000006</v>
       </c>
       <c r="E23">
-        <v>0.36301413342</v>
+        <v>9.5411693080000012E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.11011481430000002</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C24">
-        <v>5.0920396139999997E-2</v>
+        <v>0.11793290909999996</v>
       </c>
       <c r="D24">
-        <v>0.1216383452</v>
+        <v>0.15177250043999999</v>
       </c>
       <c r="E24">
-        <v>0.38890592507999999</v>
+        <v>0.11671520151999999</v>
+      </c>
+      <c r="F24">
+        <v>0.12522771098000002</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>0.25689066119999998</v>
+        <v>0.15221667409999998</v>
       </c>
       <c r="D25">
-        <v>0.1548745419</v>
+        <v>0.17972992737999999</v>
       </c>
       <c r="E25">
-        <v>0.28711691975999998</v>
+        <v>0.15054271321999996</v>
+      </c>
+      <c r="F25">
+        <v>0.16377867572000004</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C26">
-        <v>0.22581137284</v>
+        <v>0.18383345303999996</v>
       </c>
       <c r="D26">
-        <v>0.15318795518</v>
+        <v>0.21550221752000007</v>
       </c>
       <c r="E26">
-        <v>0.28859551604</v>
+        <v>0.15400662965999995</v>
+      </c>
+      <c r="F26">
+        <v>0.16399872400000004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>0.15535395229999999</v>
+      </c>
+      <c r="D27">
+        <v>0.17418574266000003</v>
+      </c>
+      <c r="E27">
+        <v>0.15476326308000002</v>
+      </c>
+      <c r="F27">
+        <v>0.17108408588000004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0.24522775784</v>
+      </c>
+      <c r="D30">
+        <v>0.24573853023999995</v>
+      </c>
+      <c r="E30">
+        <v>0.24219963249999993</v>
+      </c>
+      <c r="F30">
+        <v>0.27330368486000001</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>0.23532646012</v>
+      </c>
+      <c r="D31">
+        <v>0.25515304172000014</v>
+      </c>
+      <c r="E31">
+        <v>0.21606388285999997</v>
+      </c>
+      <c r="F31">
+        <v>0.27809030169999999</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C32">
-        <v>9.91622172E-3</v>
+        <v>0.32553039596000005</v>
       </c>
       <c r="D32">
-        <v>1.0716451179999999E-2</v>
+        <v>0.33493537530000006</v>
       </c>
       <c r="E32">
-        <v>1.056530686E-2</v>
+        <v>0.31078113324000006</v>
       </c>
       <c r="F32">
-        <v>8.2732543599999993E-3</v>
+        <v>0.32348425134000003</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C33">
-        <v>2.9278244120000001E-2</v>
+        <v>0.27001316872000003</v>
       </c>
       <c r="D33">
-        <v>3.7889310180000003E-2</v>
+        <v>0.29679446011999999</v>
       </c>
       <c r="E33">
-        <v>2.3597946799999998E-2</v>
+        <v>0.27588569924</v>
       </c>
       <c r="F33">
-        <v>2.420423402E-2</v>
+        <v>0.29073236666000002</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C34">
-        <v>6.4729890200000001E-2</v>
+        <v>0.23374377757999995</v>
       </c>
       <c r="D34">
-        <v>6.6982535839999996E-2</v>
+        <v>0.24982242558000003</v>
       </c>
       <c r="E34">
-        <v>5.0920396139999997E-2</v>
+        <v>0.27127105772000004</v>
       </c>
       <c r="F34">
-        <v>5.7350843839999985E-2</v>
+        <v>0.24481558456000002</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C35">
-        <v>0.25060587680000002</v>
+        <v>0.26169436482000008</v>
       </c>
       <c r="D35">
-        <v>0.27692332687999999</v>
+        <v>0.27490979027999995</v>
       </c>
       <c r="E35">
-        <v>0.25689066119999998</v>
+        <v>0.26329064069999997</v>
       </c>
       <c r="F35">
-        <v>0.26649778977999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36">
-        <v>0.22761147817999999</v>
-      </c>
-      <c r="D36">
-        <v>0.2508308313</v>
-      </c>
-      <c r="E36">
-        <v>0.22581137284</v>
-      </c>
-      <c r="F36">
-        <v>0.24365601110000001</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>8.5782725020000006E-2</v>
-      </c>
-      <c r="D39">
-        <v>8.5168606179999995E-2</v>
-      </c>
-      <c r="E39">
-        <v>8.6437207000000002E-2</v>
-      </c>
-      <c r="F39">
-        <v>8.3372741399999978E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40">
-        <v>9.7965769580000001E-2</v>
-      </c>
-      <c r="D40">
-        <v>0.1149295936</v>
-      </c>
-      <c r="E40">
-        <v>9.7902047140000004E-2</v>
-      </c>
-      <c r="F40">
-        <v>0.11053703596000002</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41">
-        <v>0.12692641078</v>
-      </c>
-      <c r="D41">
-        <v>0.13324864868</v>
-      </c>
-      <c r="E41">
-        <v>0.1216383452</v>
-      </c>
-      <c r="F41">
-        <v>0.14222670911999999</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42">
-        <v>0.15539155628000001</v>
-      </c>
-      <c r="D42">
-        <v>0.17383598897999999</v>
-      </c>
-      <c r="E42">
-        <v>0.1548745419</v>
-      </c>
-      <c r="F42">
-        <v>0.16849799864000001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43">
-        <v>0.15588844494000001</v>
-      </c>
-      <c r="D43">
-        <v>0.16936878186000001</v>
-      </c>
-      <c r="E43">
-        <v>0.15318795518</v>
-      </c>
-      <c r="F43">
-        <v>0.17064873444000001</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46">
-        <v>0.23955230106</v>
-      </c>
-      <c r="D46">
-        <v>0.30459413728000001</v>
-      </c>
-      <c r="E46">
-        <v>0.33364643931999999</v>
-      </c>
-      <c r="F46">
-        <v>0.19120752000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47">
-        <v>0.35825068187999998</v>
-      </c>
-      <c r="D47">
-        <v>0.31970392749999998</v>
-      </c>
-      <c r="E47">
-        <v>0.36301413342</v>
-      </c>
-      <c r="F47">
-        <v>0.20963492000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48">
-        <v>0.30044313206000001</v>
-      </c>
-      <c r="D48">
-        <v>0.35659823244</v>
-      </c>
-      <c r="E48">
-        <v>0.38890592507999999</v>
-      </c>
-      <c r="F48">
-        <v>0.24192332</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49">
-        <v>0.27823622174000001</v>
-      </c>
-      <c r="D49">
-        <v>0.27940036060000001</v>
-      </c>
-      <c r="E49">
-        <v>0.28711691975999998</v>
-      </c>
-      <c r="F49">
-        <v>0.26158207999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50">
-        <v>0.26823443058000002</v>
-      </c>
-      <c r="D50">
-        <v>0.28068251051999998</v>
-      </c>
-      <c r="E50">
-        <v>0.28859551604</v>
-      </c>
-      <c r="F50">
-        <v>0.27357608</v>
+        <v>0.28876503013999999</v>
       </c>
     </row>
   </sheetData>
@@ -17403,7 +17365,7 @@
   <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD16"/>
+      <selection activeCell="B19" sqref="B19:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -18491,7 +18453,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -18509,7 +18471,7 @@
   <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:XFD16"/>
+      <selection activeCell="B19" sqref="B19:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -19597,7 +19559,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -19614,7 +19576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M8" sqref="J3:M8"/>
     </sheetView>
   </sheetViews>
@@ -19973,8 +19935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:XFD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -21062,7 +21024,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -21080,7 +21042,7 @@
   <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:XFD16"/>
+      <selection activeCell="B19" sqref="B19:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -22168,7 +22130,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -22186,7 +22148,7 @@
   <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:XFD16"/>
+      <selection activeCell="B19" sqref="B19:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -23435,7 +23397,7 @@
   <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:XFD16"/>
+      <selection activeCell="B19" sqref="B19:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -24523,7 +24485,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/results/results-nh.xlsx
+++ b/results/results-nh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="38400" windowHeight="24000" tabRatio="984" firstSheet="6" activeTab="17"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="984" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="NH Ctrl 50 Nodes AZ" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="NH Encrypt 50 nodes Analysis" sheetId="18" r:id="rId16"/>
     <sheet name="Results Summary" sheetId="13" r:id="rId17"/>
     <sheet name="Mean Tables" sheetId="14" r:id="rId18"/>
+    <sheet name="Stdev Tables" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="48">
   <si>
     <t>Run: 1</t>
   </si>
@@ -240,8 +241,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -334,7 +357,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -378,6 +401,17 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -421,6 +455,17 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,7 +604,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$J$9</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -575,33 +620,48 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$11:$I$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$J$10:$J$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$11:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0126602974492816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0379339334663895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0790219378846201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.197604511657309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0620648570804739</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -612,7 +672,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$K$9</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -628,30 +688,30 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$11:$I$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$K$10:$K$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$11:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -665,7 +725,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$L$9</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -681,30 +741,30 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$11:$I$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$L$10:$L$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$11:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -721,12 +781,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2119653064"/>
-        <c:axId val="2119656040"/>
-        <c:axId val="2119663240"/>
+        <c:axId val="2137419016"/>
+        <c:axId val="2137421992"/>
+        <c:axId val="2137427832"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2119653064"/>
+        <c:axId val="2137419016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -735,7 +795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119656040"/>
+        <c:crossAx val="2137421992"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -743,7 +803,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119656040"/>
+        <c:axId val="2137421992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,12 +841,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119653064"/>
+        <c:crossAx val="2137419016"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2119663240"/>
+        <c:axId val="2137427832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119656040"/>
+        <c:crossAx val="2137421992"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +955,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$J$9</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -911,33 +971,48 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$11:$I$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$J$10:$J$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$11:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0126602974492816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0379339334663895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0790219378846201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.197604511657309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0620648570804739</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -948,7 +1023,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$K$9</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -964,30 +1039,30 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$11:$I$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$K$10:$K$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$11:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1001,7 +1076,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$L$9</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1017,30 +1092,30 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$I$10:$I$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$11:$I$15</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$L$10:$L$14</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$11:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1057,21 +1132,25 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2048127512"/>
-        <c:axId val="2048124520"/>
-        <c:axId val="2048118696"/>
+        <c:axId val="2137917080"/>
+        <c:axId val="2137920056"/>
+        <c:axId val="2137925896"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2048127512"/>
+        <c:axId val="2137917080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048124520"/>
+        <c:crossAx val="2137920056"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1079,7 +1158,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048124520"/>
+        <c:axId val="2137920056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1117,12 +1196,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048127512"/>
+        <c:crossAx val="2137917080"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2048118696"/>
+        <c:axId val="2137925896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048124520"/>
+        <c:crossAx val="2137920056"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1231,7 +1310,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$J$16</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1247,33 +1326,48 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$19:$I$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$J$17:$J$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$19:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0081003825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.016731439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0360436635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2214383495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2276035795</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1284,7 +1378,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$K$16</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1300,30 +1394,30 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$19:$I$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$K$17:$K$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$19:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1337,7 +1431,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$L$16</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1353,30 +1447,30 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$19:$I$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$L$17:$L$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$19:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1393,12 +1487,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2048082008"/>
-        <c:axId val="2048079016"/>
-        <c:axId val="2048073192"/>
+        <c:axId val="2137962328"/>
+        <c:axId val="2137965304"/>
+        <c:axId val="2137971144"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2048082008"/>
+        <c:axId val="2137962328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048079016"/>
+        <c:crossAx val="2137965304"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1415,7 +1509,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048079016"/>
+        <c:axId val="2137965304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,12 +1547,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048082008"/>
+        <c:crossAx val="2137962328"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2048073192"/>
+        <c:axId val="2137971144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048079016"/>
+        <c:crossAx val="2137965304"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1527,6 +1621,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1589,16 +1684,16 @@
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1609,6 +1704,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.01096146004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02407365248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04928455626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25600332422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24416588246</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1642,16 +1752,16 @@
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1695,16 +1805,16 @@
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1728,12 +1838,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2048035400"/>
-        <c:axId val="2048029432"/>
-        <c:axId val="2048023480"/>
+        <c:axId val="2138008936"/>
+        <c:axId val="2138014888"/>
+        <c:axId val="2138020856"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2048035400"/>
+        <c:axId val="2138008936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,6 +1870,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1772,7 +1883,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2048029432"/>
+        <c:crossAx val="2138014888"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1780,7 +1891,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048029432"/>
+        <c:axId val="2138014888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,6 +1922,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1824,12 +1936,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2048035400"/>
+        <c:crossAx val="2138008936"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2048023480"/>
+        <c:axId val="2138020856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,7 +1950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048029432"/>
+        <c:crossAx val="2138014888"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1848,6 +1960,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2092,12 +2205,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2047987976"/>
-        <c:axId val="2047984984"/>
-        <c:axId val="2047979160"/>
+        <c:axId val="2137313000"/>
+        <c:axId val="2137310008"/>
+        <c:axId val="2137304184"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2047987976"/>
+        <c:axId val="2137313000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,7 +2219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047984984"/>
+        <c:crossAx val="2137310008"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2114,7 +2227,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2047984984"/>
+        <c:axId val="2137310008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,12 +2265,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047987976"/>
+        <c:crossAx val="2137313000"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2047979160"/>
+        <c:axId val="2137304184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2166,7 +2279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047984984"/>
+        <c:crossAx val="2137310008"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2428,12 +2541,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2047942712"/>
-        <c:axId val="2047939720"/>
-        <c:axId val="2047933896"/>
+        <c:axId val="2137267736"/>
+        <c:axId val="2137264744"/>
+        <c:axId val="2137258920"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2047942712"/>
+        <c:axId val="2137267736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,7 +2555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047939720"/>
+        <c:crossAx val="2137264744"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2450,7 +2563,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2047939720"/>
+        <c:axId val="2137264744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,12 +2601,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047942712"/>
+        <c:crossAx val="2137267736"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2047933896"/>
+        <c:axId val="2137258920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,7 +2615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047939720"/>
+        <c:crossAx val="2137264744"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2567,6 +2680,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2768,12 +2882,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2047895352"/>
-        <c:axId val="2047889640"/>
-        <c:axId val="2047883656"/>
+        <c:axId val="2137220504"/>
+        <c:axId val="2137214792"/>
+        <c:axId val="2137208808"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2047895352"/>
+        <c:axId val="2137220504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2795,6 +2909,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2807,7 +2922,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2047889640"/>
+        <c:crossAx val="2137214792"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2815,7 +2930,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2047889640"/>
+        <c:axId val="2137214792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2846,6 +2961,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2859,12 +2975,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2047895352"/>
+        <c:crossAx val="2137220504"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2047883656"/>
+        <c:axId val="2137208808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2873,7 +2989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047889640"/>
+        <c:crossAx val="2137214792"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2890,6 +3006,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3134,12 +3251,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120601112"/>
-        <c:axId val="2120604088"/>
-        <c:axId val="2120609928"/>
+        <c:axId val="2137173288"/>
+        <c:axId val="2137170296"/>
+        <c:axId val="2137164472"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2120601112"/>
+        <c:axId val="2137173288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3148,7 +3265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120604088"/>
+        <c:crossAx val="2137170296"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3156,7 +3273,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120604088"/>
+        <c:axId val="2137170296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3194,12 +3311,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120601112"/>
+        <c:crossAx val="2137173288"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2120609928"/>
+        <c:axId val="2137164472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3208,7 +3325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120604088"/>
+        <c:crossAx val="2137170296"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3470,12 +3587,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120646376"/>
-        <c:axId val="2120649352"/>
-        <c:axId val="2120655192"/>
+        <c:axId val="2137127832"/>
+        <c:axId val="2137124840"/>
+        <c:axId val="2137119016"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2120646376"/>
+        <c:axId val="2137127832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3484,7 +3601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120649352"/>
+        <c:crossAx val="2137124840"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3492,7 +3609,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120649352"/>
+        <c:axId val="2137124840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,12 +3647,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120646376"/>
+        <c:crossAx val="2137127832"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2120655192"/>
+        <c:axId val="2137119016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3544,7 +3661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120649352"/>
+        <c:crossAx val="2137124840"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3609,6 +3726,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3810,12 +3928,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120693880"/>
-        <c:axId val="2120699576"/>
-        <c:axId val="2120705576"/>
+        <c:axId val="2137080616"/>
+        <c:axId val="2137074904"/>
+        <c:axId val="2137068920"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2120693880"/>
+        <c:axId val="2137080616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,6 +3955,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3849,7 +3968,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2120699576"/>
+        <c:crossAx val="2137074904"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3857,7 +3976,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120699576"/>
+        <c:axId val="2137074904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,6 +4007,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3901,12 +4021,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2120693880"/>
+        <c:crossAx val="2137080616"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2120705576"/>
+        <c:axId val="2137068920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,7 +4035,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120699576"/>
+        <c:crossAx val="2137074904"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3932,6 +4052,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4285,11 +4406,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2120763032"/>
-        <c:axId val="2120766152"/>
+        <c:axId val="2137016120"/>
+        <c:axId val="2137012984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120763032"/>
+        <c:axId val="2137016120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4298,7 +4419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120766152"/>
+        <c:crossAx val="2137012984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4306,7 +4427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120766152"/>
+        <c:axId val="2137012984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4336,7 +4457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120763032"/>
+        <c:crossAx val="2137016120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4426,7 +4547,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$J$16</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4442,33 +4563,48 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$19:$I$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$J$17:$J$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$J$19:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0081003825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.016731439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0360436635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2214383495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2276035795</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4479,7 +4615,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$K$16</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4495,30 +4631,30 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$19:$I$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$K$17:$K$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$K$19:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4532,7 +4668,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$L$16</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4548,30 +4684,30 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$I$17:$I$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$I$19:$I$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'NH Ctrl 50 nodes analysis'!$L$17:$L$21</c:f>
+              <c:f>'NH Ctrl 50 nodes analysis'!$L$19:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4588,12 +4724,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2119700120"/>
-        <c:axId val="2119703096"/>
-        <c:axId val="2119708936"/>
+        <c:axId val="2137466664"/>
+        <c:axId val="2137469640"/>
+        <c:axId val="2137475480"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2119700120"/>
+        <c:axId val="2137466664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4602,7 +4738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119703096"/>
+        <c:crossAx val="2137469640"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4610,7 +4746,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119703096"/>
+        <c:axId val="2137469640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4648,12 +4784,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119700120"/>
+        <c:crossAx val="2137466664"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2119708936"/>
+        <c:axId val="2137475480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4662,7 +4798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119703096"/>
+        <c:crossAx val="2137469640"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5029,11 +5165,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2051943128"/>
-        <c:axId val="2051946248"/>
+        <c:axId val="2138416088"/>
+        <c:axId val="2138419208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2051943128"/>
+        <c:axId val="2138416088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5042,7 +5178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2051946248"/>
+        <c:crossAx val="2138419208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5050,7 +5186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2051946248"/>
+        <c:axId val="2138419208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5080,7 +5216,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2051943128"/>
+        <c:crossAx val="2138416088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5432,11 +5568,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2051987672"/>
-        <c:axId val="2051990792"/>
+        <c:axId val="2138461096"/>
+        <c:axId val="2138464216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2051987672"/>
+        <c:axId val="2138461096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5445,7 +5581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2051990792"/>
+        <c:crossAx val="2138464216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5453,7 +5589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2051990792"/>
+        <c:axId val="2138464216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5483,7 +5619,1230 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2051987672"/>
+        <c:crossAx val="2138461096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Strategy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> Effects (Amazon</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$14:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neighbor (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor (2)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Neighbor (3)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$C$14:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0126602974492816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0379339334663895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0790219378846201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.197604511657309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0620648570804739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0175251453255604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reroute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$14:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neighbor (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor (2)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Neighbor (3)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$D$14:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0117793709092718</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.043099599487471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0781627265860389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.639838431274397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.329391182113011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0235776724358892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Redact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$14:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neighbor (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor (2)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Neighbor (3)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$E$14:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0116139144177306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0541611529703159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0990964044580792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.187656884834972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0130270570006295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0174856148939993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encrypt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$14:$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neighbor (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor (2)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Neighbor (3)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$F$14:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.00240379234598875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0377388159220847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.102259079046148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32251175028346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0227127838672338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.019512763029287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2061539800"/>
+        <c:axId val="-2070351256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2061539800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2070351256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2070351256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2061539800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Strategy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> Effects (Rackspace)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$22:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neighbor (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor (2)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Neighbor (3)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$C$22:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0133927411767133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00842597742603133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00965780488146515</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0183065089445127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0649121914010513</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.014157904633761</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reroute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$22:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neighbor (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor (2)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Neighbor (3)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$D$22:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.00705014585879219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.895113483933841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0370454771676699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0252259249488373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.324841057513451</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0269898742338648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Redact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$22:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neighbor (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor (2)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Neighbor (3)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$E$22:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0164158750187257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00880369812701143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00947189809934397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0158887711941404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0151678750702682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0168680919374733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encrypt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$22:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neighbor (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor (2)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Neighbor (3)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$F$22:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.00810140786667445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.037561498839685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0114048316886359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.022716097428043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0176433105807825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.017603086735275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2071776008"/>
+        <c:axId val="-2061552280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2071776008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2061552280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2061552280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2071776008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Strategy Effects (Comcast)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$30:$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neighbor (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor (2)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Neighbor (3)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$C$30:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.018811338319333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0390259306350114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0698771479001217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0362706619668512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0180316476795039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0205278148822359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reroute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$30:$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neighbor (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor (2)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Neighbor (3)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$D$30:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0194489912787532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0865564001348051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.089482428982838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.178778709016175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0399602488550067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0348284227593679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Redact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$30:$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neighbor (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor (2)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Neighbor (3)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$E$30:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.00744184504331115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0104192717461167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0616214447472722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0540802086997701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0780482438891166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0214633969895166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encrypt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$30:$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neighbor (1)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor (2)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Neighbor (3)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neighbor (4)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neighbor (5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$F$30:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0600696176414738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0776601578641951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.064336582427629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0515043570705928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0163759153934164</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0291639818982113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2132733752"/>
+        <c:axId val="-2062157848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2132733752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2062157848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2062157848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2132733752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5596,16 +6955,16 @@
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5616,6 +6975,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.01096146004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02407365248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04928455626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25600332422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24416588246</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5649,16 +7023,16 @@
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5702,16 +7076,16 @@
                   <c:v>Home</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Peer</c:v>
+                  <c:v>Neighbor (1)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Neighbor</c:v>
+                  <c:v>Neighbor (2)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Distant (1)</c:v>
+                  <c:v>Neighbor (3)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Distant (2)</c:v>
+                  <c:v>Neighbor (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5735,12 +7109,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2119745384"/>
-        <c:axId val="2119748360"/>
-        <c:axId val="2119754200"/>
+        <c:axId val="2137512664"/>
+        <c:axId val="2137515640"/>
+        <c:axId val="2137521480"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2119745384"/>
+        <c:axId val="2137512664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5749,7 +7123,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119748360"/>
+        <c:crossAx val="2137515640"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5757,7 +7131,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119748360"/>
+        <c:axId val="2137515640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5795,12 +7169,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119745384"/>
+        <c:crossAx val="2137512664"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2119754200"/>
+        <c:axId val="2137521480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5809,7 +7183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119748360"/>
+        <c:crossAx val="2137515640"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5869,7 +7243,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6071,12 +7444,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2048669208"/>
-        <c:axId val="2048672184"/>
-        <c:axId val="2048678024"/>
+        <c:axId val="2137583240"/>
+        <c:axId val="2137586216"/>
+        <c:axId val="2137592056"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2048669208"/>
+        <c:axId val="2137583240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6085,7 +7458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048672184"/>
+        <c:crossAx val="2137586216"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6093,7 +7466,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048672184"/>
+        <c:axId val="2137586216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6124,19 +7497,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048669208"/>
+        <c:crossAx val="2137583240"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2048678024"/>
+        <c:axId val="2137592056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6145,7 +7517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048672184"/>
+        <c:crossAx val="2137586216"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6162,7 +7534,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6205,7 +7576,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6407,12 +7777,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2048716616"/>
-        <c:axId val="2048719592"/>
-        <c:axId val="2048725432"/>
+        <c:axId val="2137630760"/>
+        <c:axId val="2137633736"/>
+        <c:axId val="2137639576"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2048716616"/>
+        <c:axId val="2137630760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6421,7 +7791,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048719592"/>
+        <c:crossAx val="2137633736"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6429,7 +7799,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048719592"/>
+        <c:axId val="2137633736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6460,19 +7830,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048716616"/>
+        <c:crossAx val="2137630760"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2048725432"/>
+        <c:axId val="2137639576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6481,7 +7850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048719592"/>
+        <c:crossAx val="2137633736"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6498,7 +7867,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6541,7 +7909,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6743,12 +8110,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2048763224"/>
-        <c:axId val="2048766200"/>
-        <c:axId val="2048772040"/>
+        <c:axId val="2137676824"/>
+        <c:axId val="2137679800"/>
+        <c:axId val="2137685640"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2048763224"/>
+        <c:axId val="2137676824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6757,7 +8124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048766200"/>
+        <c:crossAx val="2137679800"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6765,7 +8132,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048766200"/>
+        <c:axId val="2137679800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6796,19 +8163,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048763224"/>
+        <c:crossAx val="2137676824"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2048772040"/>
+        <c:axId val="2137685640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6817,7 +8183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048766200"/>
+        <c:crossAx val="2137679800"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6834,7 +8200,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7079,12 +8444,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2048833256"/>
-        <c:axId val="2048836232"/>
-        <c:axId val="2048842072"/>
+        <c:axId val="2137747432"/>
+        <c:axId val="2137750408"/>
+        <c:axId val="2137756248"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2048833256"/>
+        <c:axId val="2137747432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7093,7 +8458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048836232"/>
+        <c:crossAx val="2137750408"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7101,7 +8466,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048836232"/>
+        <c:axId val="2137750408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7139,12 +8504,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048833256"/>
+        <c:crossAx val="2137747432"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2048842072"/>
+        <c:axId val="2137756248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7153,7 +8518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048836232"/>
+        <c:crossAx val="2137750408"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7415,12 +8780,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2048880520"/>
-        <c:axId val="2048883496"/>
-        <c:axId val="2048889336"/>
+        <c:axId val="2137794888"/>
+        <c:axId val="2137797864"/>
+        <c:axId val="2137803704"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2048880520"/>
+        <c:axId val="2137794888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7429,7 +8794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048883496"/>
+        <c:crossAx val="2137797864"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7437,7 +8802,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048883496"/>
+        <c:axId val="2137797864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7475,12 +8840,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048880520"/>
+        <c:crossAx val="2137794888"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2048889336"/>
+        <c:axId val="2137803704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7489,7 +8854,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048883496"/>
+        <c:crossAx val="2137797864"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7751,12 +9116,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2048203752"/>
-        <c:axId val="2048200760"/>
-        <c:axId val="2048194936"/>
+        <c:axId val="2137841224"/>
+        <c:axId val="2137844200"/>
+        <c:axId val="2137850040"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2048203752"/>
+        <c:axId val="2137841224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7765,7 +9130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048200760"/>
+        <c:crossAx val="2137844200"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7773,7 +9138,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048200760"/>
+        <c:axId val="2137844200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7811,12 +9176,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048203752"/>
+        <c:crossAx val="2137841224"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2048194936"/>
+        <c:axId val="2137850040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7825,7 +9190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048200760"/>
+        <c:crossAx val="2137844200"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7868,13 +9233,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>56520</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>53280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>126000</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7898,13 +9263,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>46800</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>110160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>115920</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8517,6 +9882,107 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>477520</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8841,8 +10307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -16948,8 +18414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -16985,8 +18451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B13:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -17346,6 +18812,457 @@
       </c>
       <c r="F35">
         <v>0.28876503013999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B13:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <f>'NH Ctrl 50 Nodes AZ'!D19</f>
+        <v>1.2660297449281618E-2</v>
+      </c>
+      <c r="D14">
+        <f>'NH Reroute 50 nodes AZ'!D19</f>
+        <v>1.177937090927177E-2</v>
+      </c>
+      <c r="E14">
+        <f>'NH Redact 50 nodes AZ'!D19</f>
+        <v>1.161391441773056E-2</v>
+      </c>
+      <c r="F14">
+        <f>'NH Encrypt 50 nodes AZ'!D19</f>
+        <v>2.4037923459887486E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <f>'NH Ctrl 50 Nodes AZ'!D20</f>
+        <v>3.7933933466389541E-2</v>
+      </c>
+      <c r="D15">
+        <f>'NH Reroute 50 nodes AZ'!D20</f>
+        <v>4.3099599487470969E-2</v>
+      </c>
+      <c r="E15">
+        <f>'NH Redact 50 nodes AZ'!D20</f>
+        <v>5.4161152970315866E-2</v>
+      </c>
+      <c r="F15">
+        <f>'NH Encrypt 50 nodes AZ'!D20</f>
+        <v>3.7738815922084688E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <f>'NH Ctrl 50 Nodes AZ'!D21</f>
+        <v>7.9021937884620155E-2</v>
+      </c>
+      <c r="D16">
+        <f>'NH Reroute 50 nodes AZ'!D21</f>
+        <v>7.8162726586038886E-2</v>
+      </c>
+      <c r="E16">
+        <f>'NH Redact 50 nodes AZ'!D21</f>
+        <v>9.9096404458079185E-2</v>
+      </c>
+      <c r="F16">
+        <f>'NH Encrypt 50 nodes AZ'!D21</f>
+        <v>0.10225907904614839</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <f>'NH Ctrl 50 Nodes AZ'!D22</f>
+        <v>0.19760451165730941</v>
+      </c>
+      <c r="D17">
+        <f>'NH Reroute 50 nodes AZ'!D22</f>
+        <v>0.6398384312743971</v>
+      </c>
+      <c r="E17">
+        <f>'NH Redact 50 nodes AZ'!D22</f>
+        <v>0.18765688483497203</v>
+      </c>
+      <c r="F17">
+        <f>'NH Encrypt 50 nodes AZ'!D22</f>
+        <v>0.32251175028345958</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <f>'NH Ctrl 50 Nodes AZ'!D23</f>
+        <v>6.2064857080473886E-2</v>
+      </c>
+      <c r="D18">
+        <f>'NH Reroute 50 nodes AZ'!D23</f>
+        <v>0.32939118211301094</v>
+      </c>
+      <c r="E18">
+        <f>'NH Redact 50 nodes AZ'!D23</f>
+        <v>1.302705700062947E-2</v>
+      </c>
+      <c r="F18">
+        <f>'NH Encrypt 50 nodes AZ'!D23</f>
+        <v>2.2712783867233782E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <f>'NH Ctrl 50 Nodes AZ'!D24</f>
+        <v>1.7525145325560449E-2</v>
+      </c>
+      <c r="D19">
+        <f>'NH Reroute 50 nodes AZ'!D24</f>
+        <v>2.3577672435889225E-2</v>
+      </c>
+      <c r="E19">
+        <f>'NH Redact 50 nodes AZ'!D24</f>
+        <v>1.7485614893999312E-2</v>
+      </c>
+      <c r="F19">
+        <f>'NH Encrypt 50 nodes AZ'!D24</f>
+        <v>1.9512763029287009E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <f>'NH Ctrl 50 nodes RS'!D19</f>
+        <v>1.3392741176713291E-2</v>
+      </c>
+      <c r="D22">
+        <f>'NH Reroute 50 nodes RS'!D19</f>
+        <v>7.0501458587921891E-3</v>
+      </c>
+      <c r="E22">
+        <f>'NH Redact 50 nodes RS'!D19</f>
+        <v>1.6415875018725729E-2</v>
+      </c>
+      <c r="F22">
+        <f>'NH Encrypt 50 nodes RS'!D19</f>
+        <v>8.1014078666744489E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <f>'NH Ctrl 50 nodes RS'!D20</f>
+        <v>8.4259774260313364E-3</v>
+      </c>
+      <c r="D23">
+        <f>'NH Reroute 50 nodes RS'!D20</f>
+        <v>0.8951134839338406</v>
+      </c>
+      <c r="E23">
+        <f>'NH Redact 50 nodes RS'!D20</f>
+        <v>8.803698127011433E-3</v>
+      </c>
+      <c r="F23">
+        <f>'NH Encrypt 50 nodes RS'!D20</f>
+        <v>3.7561498839685029E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <f>'NH Ctrl 50 nodes RS'!D21</f>
+        <v>9.6578048814651568E-3</v>
+      </c>
+      <c r="D24">
+        <f>'NH Reroute 50 nodes RS'!D21</f>
+        <v>3.7045477167669906E-2</v>
+      </c>
+      <c r="E24">
+        <f>'NH Redact 50 nodes RS'!D21</f>
+        <v>9.4718980993439734E-3</v>
+      </c>
+      <c r="F24">
+        <f>'NH Encrypt 50 nodes RS'!D21</f>
+        <v>1.1404831688635904E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <f>'NH Ctrl 50 nodes RS'!D22</f>
+        <v>1.830650894451271E-2</v>
+      </c>
+      <c r="D25">
+        <f>'NH Reroute 50 nodes RS'!D22</f>
+        <v>2.5225924948837283E-2</v>
+      </c>
+      <c r="E25">
+        <f>'NH Redact 50 nodes RS'!D22</f>
+        <v>1.5888771194140373E-2</v>
+      </c>
+      <c r="F25">
+        <f>'NH Encrypt 50 nodes RS'!D22</f>
+        <v>2.271609742804296E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <f>'NH Ctrl 50 nodes RS'!D23</f>
+        <v>6.4912191401051297E-2</v>
+      </c>
+      <c r="D26">
+        <f>'NH Reroute 50 nodes RS'!D23</f>
+        <v>0.3248410575134511</v>
+      </c>
+      <c r="E26">
+        <f>'NH Redact 50 nodes RS'!D23</f>
+        <v>1.5167875070268247E-2</v>
+      </c>
+      <c r="F26">
+        <f>'NH Encrypt 50 nodes RS'!D23</f>
+        <v>1.764331058078248E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <f>'NH Ctrl 50 nodes RS'!D24</f>
+        <v>1.4157904633761043E-2</v>
+      </c>
+      <c r="D27">
+        <f>'NH Reroute 50 nodes RS'!D24</f>
+        <v>2.6989874233864758E-2</v>
+      </c>
+      <c r="E27">
+        <f>'NH Redact 50 nodes RS'!D24</f>
+        <v>1.6868091937473271E-2</v>
+      </c>
+      <c r="F27">
+        <f>'NH Encrypt 50 nodes RS'!D24</f>
+        <v>1.7603086735274966E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <f>'NH Ctrl 50 nodes Local'!D19</f>
+        <v>1.8811338319333053E-2</v>
+      </c>
+      <c r="D30">
+        <f>'NH Reroute 50 nodes Local'!D19</f>
+        <v>1.9448991278753186E-2</v>
+      </c>
+      <c r="E30">
+        <f>'NH Redact 50 nodes Local'!D19</f>
+        <v>7.441845043311154E-3</v>
+      </c>
+      <c r="F30">
+        <f>'NH Encrypt 50 nodes Local'!D19</f>
+        <v>6.0069617641473803E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <f>'NH Ctrl 50 nodes Local'!D20</f>
+        <v>3.902593063501137E-2</v>
+      </c>
+      <c r="D31">
+        <f>'NH Reroute 50 nodes Local'!D20</f>
+        <v>8.6556400134805159E-2</v>
+      </c>
+      <c r="E31">
+        <f>'NH Redact 50 nodes Local'!D20</f>
+        <v>1.0419271746116732E-2</v>
+      </c>
+      <c r="F31">
+        <f>'NH Encrypt 50 nodes Local'!D20</f>
+        <v>7.766015786419514E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <f>'NH Ctrl 50 nodes Local'!D21</f>
+        <v>6.9877147900121686E-2</v>
+      </c>
+      <c r="D32">
+        <f>'NH Reroute 50 nodes Local'!D21</f>
+        <v>8.9482428982837994E-2</v>
+      </c>
+      <c r="E32">
+        <f>'NH Redact 50 nodes Local'!D21</f>
+        <v>6.1621444747272242E-2</v>
+      </c>
+      <c r="F32">
+        <f>'NH Encrypt 50 nodes Local'!D21</f>
+        <v>6.4336582427629033E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <f>'NH Ctrl 50 nodes Local'!D22</f>
+        <v>3.6270661966851192E-2</v>
+      </c>
+      <c r="D33">
+        <f>'NH Reroute 50 nodes Local'!D22</f>
+        <v>0.17877870901617549</v>
+      </c>
+      <c r="E33">
+        <f>'NH Redact 50 nodes Local'!D22</f>
+        <v>5.4080208699770073E-2</v>
+      </c>
+      <c r="F33">
+        <f>'NH Encrypt 50 nodes Local'!D22</f>
+        <v>5.1504357070592782E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <f>'NH Ctrl 50 nodes Local'!D23</f>
+        <v>1.8031647679503909E-2</v>
+      </c>
+      <c r="D34">
+        <f>'NH Reroute 50 nodes Local'!D23</f>
+        <v>3.9960248855006757E-2</v>
+      </c>
+      <c r="E34">
+        <f>'NH Redact 50 nodes Local'!D23</f>
+        <v>7.8048243889116561E-2</v>
+      </c>
+      <c r="F34">
+        <f>'NH Encrypt 50 nodes Local'!D23</f>
+        <v>1.6375915393416443E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <f>'NH Ctrl 50 nodes Local'!D24</f>
+        <v>2.0527814882235908E-2</v>
+      </c>
+      <c r="D35">
+        <f>'NH Reroute 50 nodes Local'!D24</f>
+        <v>3.482842275936792E-2</v>
+      </c>
+      <c r="E35">
+        <f>'NH Redact 50 nodes Local'!D24</f>
+        <v>2.1463396989516614E-2</v>
+      </c>
+      <c r="F35">
+        <f>'NH Encrypt 50 nodes Local'!D24</f>
+        <v>2.9163981898211327E-2</v>
       </c>
     </row>
   </sheetData>
@@ -17364,8 +19281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B24"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -19574,10 +21491,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L21"/>
+  <dimension ref="A2:L24"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M8" sqref="J3:M8"/>
+      <selection activeCell="W50" sqref="W50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -19624,6 +21541,9 @@
       <c r="I3" t="s">
         <v>7</v>
       </c>
+      <c r="J3">
+        <v>1.0961460039999999E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
@@ -19639,7 +21559,10 @@
         <v>5.5684695232599099E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>2.4073652480000006E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -19656,7 +21579,10 @@
         <v>8.8247719643883699E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>4.9284556260000015E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -19673,7 +21599,10 @@
         <v>0.16215655691397901</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="J6">
+        <v>0.25600332421999994</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -19690,229 +21619,286 @@
         <v>1.1273730225503001E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="J7">
+        <v>0.24416588246000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <v>0.23227740880000003</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>8.5782725020000006E-2</v>
-      </c>
-      <c r="C10">
-        <v>8.1887026000000002E-2</v>
-      </c>
-      <c r="D10">
-        <v>1.30905724838124E-2</v>
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>9.7965769580000001E-2</v>
+        <v>8.5782725020000006E-2</v>
       </c>
       <c r="C11">
-        <v>9.4637760500000001E-2</v>
+        <v>8.1887026000000002E-2</v>
       </c>
       <c r="D11">
-        <v>8.6656908586574006E-3</v>
+        <v>1.30905724838124E-2</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>1.2660297449281618E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>0.12692641078</v>
+        <v>9.7965769580000001E-2</v>
       </c>
       <c r="C12">
-        <v>0.1228719415</v>
+        <v>9.4637760500000001E-2</v>
       </c>
       <c r="D12">
-        <v>1.3226968841641601E-2</v>
+        <v>8.6656908586574006E-3</v>
       </c>
       <c r="I12" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="J12">
+        <v>3.7933933466389541E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>0.15539155628000001</v>
+        <v>0.12692641078</v>
       </c>
       <c r="C13">
-        <v>0.14946705900000001</v>
+        <v>0.1228719415</v>
       </c>
       <c r="D13">
-        <v>1.3623993786389701E-2</v>
+        <v>1.3226968841641601E-2</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="J13">
+        <v>7.9021937884620155E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.15539155628000001</v>
+      </c>
+      <c r="C14">
+        <v>0.14946705900000001</v>
+      </c>
+      <c r="D14">
+        <v>1.3623993786389701E-2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14">
+        <v>0.19760451165730941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>0.15588844494000001</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>0.15125371900000001</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>1.1713672847372099E-2</v>
       </c>
-      <c r="I14" t="s">
-        <v>17</v>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15">
+        <v>6.2064857080473886E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" t="s">
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16">
+        <v>1.7525145325560449E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I18" t="s">
         <v>5</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J18" t="s">
         <v>13</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K18" t="s">
         <v>14</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>0.23955230106</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>0.233468648</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>1.4075242408649E-2</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="J19">
+        <v>8.1003824999999995E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>0.35825068187999998</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>0.25410051150000001</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>0.70724963409276598</v>
       </c>
-      <c r="I18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20">
+        <v>1.6731439000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>0.30044313206000001</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>0.28765242000000002</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>4.9629565453678498E-2</v>
       </c>
-      <c r="I19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21">
+        <v>3.6043663500000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>0.27823622174000001</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>0.26420825749999999</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>4.2145777459408701E-2</v>
       </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22">
+        <v>0.22143834949999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>0.26823443058000002</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>0.26125350149999998</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>2.01407190872556E-2</v>
       </c>
-      <c r="I21" t="s">
-        <v>17</v>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23">
+        <v>0.22760357949999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24">
+        <v>0.22620583849999998</v>
       </c>
     </row>
   </sheetData>
@@ -19936,7 +21922,7 @@
   <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B24"/>
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/results/results-nh.xlsx
+++ b/results/results-nh.xlsx
@@ -564,7 +564,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -781,12 +780,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137419016"/>
-        <c:axId val="2137421992"/>
-        <c:axId val="2137427832"/>
+        <c:axId val="2079294184"/>
+        <c:axId val="2079297160"/>
+        <c:axId val="2079304360"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137419016"/>
+        <c:axId val="2079294184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137421992"/>
+        <c:crossAx val="2079297160"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -803,7 +802,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137421992"/>
+        <c:axId val="2079297160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,19 +833,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137419016"/>
+        <c:crossAx val="2079294184"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137427832"/>
+        <c:axId val="2079304360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +853,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137421992"/>
+        <c:crossAx val="2079297160"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -872,7 +870,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -915,7 +912,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1132,25 +1128,24 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137917080"/>
-        <c:axId val="2137920056"/>
-        <c:axId val="2137925896"/>
+        <c:axId val="2109167272"/>
+        <c:axId val="2109176280"/>
+        <c:axId val="2109182024"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137917080"/>
+        <c:axId val="2109167272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137920056"/>
+        <c:crossAx val="2109176280"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1158,7 +1153,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137920056"/>
+        <c:axId val="2109176280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,19 +1184,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137917080"/>
+        <c:crossAx val="2109167272"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137925896"/>
+        <c:axId val="2109182024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137920056"/>
+        <c:crossAx val="2109176280"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1227,7 +1221,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1270,7 +1263,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1487,12 +1479,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137962328"/>
-        <c:axId val="2137965304"/>
-        <c:axId val="2137971144"/>
+        <c:axId val="2109218568"/>
+        <c:axId val="2109221544"/>
+        <c:axId val="2109227384"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137962328"/>
+        <c:axId val="2109218568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +1493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137965304"/>
+        <c:crossAx val="2109221544"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1509,7 +1501,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137965304"/>
+        <c:axId val="2109221544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,19 +1532,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137962328"/>
+        <c:crossAx val="2109218568"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137971144"/>
+        <c:axId val="2109227384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1552,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137965304"/>
+        <c:crossAx val="2109221544"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1578,7 +1569,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1621,7 +1611,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1838,12 +1827,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2138008936"/>
-        <c:axId val="2138014888"/>
-        <c:axId val="2138020856"/>
+        <c:axId val="2109265496"/>
+        <c:axId val="2109271448"/>
+        <c:axId val="2109277416"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2138008936"/>
+        <c:axId val="2109265496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,7 +1859,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1883,7 +1871,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2138014888"/>
+        <c:crossAx val="2109271448"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1891,7 +1879,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138014888"/>
+        <c:axId val="2109271448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,7 +1910,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1936,12 +1923,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2138008936"/>
+        <c:crossAx val="2109265496"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2138020856"/>
+        <c:axId val="2109277416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +1937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138014888"/>
+        <c:crossAx val="2109271448"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1960,7 +1947,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2003,7 +1989,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2205,12 +2190,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137313000"/>
-        <c:axId val="2137310008"/>
-        <c:axId val="2137304184"/>
+        <c:axId val="2109312680"/>
+        <c:axId val="2109315656"/>
+        <c:axId val="2109321496"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137313000"/>
+        <c:axId val="2109312680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2219,7 +2204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137310008"/>
+        <c:crossAx val="2109315656"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2227,7 +2212,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137310008"/>
+        <c:axId val="2109315656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,19 +2243,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137313000"/>
+        <c:crossAx val="2109312680"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137304184"/>
+        <c:axId val="2109321496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,7 +2263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137310008"/>
+        <c:crossAx val="2109315656"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2296,7 +2280,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2339,7 +2322,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2541,12 +2523,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137267736"/>
-        <c:axId val="2137264744"/>
-        <c:axId val="2137258920"/>
+        <c:axId val="2109357944"/>
+        <c:axId val="2109360920"/>
+        <c:axId val="2109366760"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137267736"/>
+        <c:axId val="2109357944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,7 +2537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137264744"/>
+        <c:crossAx val="2109360920"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2563,7 +2545,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137264744"/>
+        <c:axId val="2109360920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,19 +2576,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137267736"/>
+        <c:crossAx val="2109357944"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137258920"/>
+        <c:axId val="2109366760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,7 +2596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137264744"/>
+        <c:crossAx val="2109360920"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2632,7 +2613,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2680,7 +2660,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2882,12 +2861,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137220504"/>
-        <c:axId val="2137214792"/>
-        <c:axId val="2137208808"/>
+        <c:axId val="2109405304"/>
+        <c:axId val="2109411000"/>
+        <c:axId val="2109417000"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137220504"/>
+        <c:axId val="2109405304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2909,7 +2888,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2922,7 +2900,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2137214792"/>
+        <c:crossAx val="2109411000"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2930,7 +2908,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137214792"/>
+        <c:axId val="2109411000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2961,7 +2939,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2975,12 +2952,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2137220504"/>
+        <c:crossAx val="2109405304"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137208808"/>
+        <c:axId val="2109417000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,7 +2966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137214792"/>
+        <c:crossAx val="2109411000"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3006,7 +2983,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3049,7 +3025,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3251,12 +3226,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137173288"/>
-        <c:axId val="2137170296"/>
-        <c:axId val="2137164472"/>
+        <c:axId val="2109452392"/>
+        <c:axId val="2109455368"/>
+        <c:axId val="2109461208"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137173288"/>
+        <c:axId val="2109452392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3265,7 +3240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137170296"/>
+        <c:crossAx val="2109455368"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3273,7 +3248,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137170296"/>
+        <c:axId val="2109455368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3304,19 +3279,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137173288"/>
+        <c:crossAx val="2109452392"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137164472"/>
+        <c:axId val="2109461208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3325,7 +3299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137170296"/>
+        <c:crossAx val="2109455368"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3342,7 +3316,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3385,7 +3358,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3587,12 +3559,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137127832"/>
-        <c:axId val="2137124840"/>
-        <c:axId val="2137119016"/>
+        <c:axId val="2109497848"/>
+        <c:axId val="2109500824"/>
+        <c:axId val="2109506664"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137127832"/>
+        <c:axId val="2109497848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3601,7 +3573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137124840"/>
+        <c:crossAx val="2109500824"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3609,7 +3581,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137124840"/>
+        <c:axId val="2109500824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3640,19 +3612,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137127832"/>
+        <c:crossAx val="2109497848"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137119016"/>
+        <c:axId val="2109506664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3661,7 +3632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137124840"/>
+        <c:crossAx val="2109500824"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3678,7 +3649,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3726,7 +3696,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3928,12 +3897,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137080616"/>
-        <c:axId val="2137074904"/>
-        <c:axId val="2137068920"/>
+        <c:axId val="2109545320"/>
+        <c:axId val="2109551016"/>
+        <c:axId val="2109557016"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137080616"/>
+        <c:axId val="2109545320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3955,7 +3924,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3968,7 +3936,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2137074904"/>
+        <c:crossAx val="2109551016"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3976,7 +3944,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137074904"/>
+        <c:axId val="2109551016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4007,7 +3975,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4021,12 +3988,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2137080616"/>
+        <c:crossAx val="2109545320"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137068920"/>
+        <c:axId val="2109557016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4035,7 +4002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137074904"/>
+        <c:crossAx val="2109551016"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4052,7 +4019,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4111,7 +4077,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4406,11 +4371,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2137016120"/>
-        <c:axId val="2137012984"/>
+        <c:axId val="2109615144"/>
+        <c:axId val="2109618264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137016120"/>
+        <c:axId val="2109615144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4419,7 +4384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137012984"/>
+        <c:crossAx val="2109618264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4427,7 +4392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137012984"/>
+        <c:axId val="2109618264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4450,21 +4415,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137016120"/>
+        <c:crossAx val="2109615144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4507,7 +4470,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4724,12 +4686,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137466664"/>
-        <c:axId val="2137469640"/>
-        <c:axId val="2137475480"/>
+        <c:axId val="2078617928"/>
+        <c:axId val="2078614936"/>
+        <c:axId val="2078609112"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137466664"/>
+        <c:axId val="2078617928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4738,7 +4700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137469640"/>
+        <c:crossAx val="2078614936"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4746,7 +4708,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137469640"/>
+        <c:axId val="2078614936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4777,19 +4739,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137466664"/>
+        <c:crossAx val="2078617928"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137475480"/>
+        <c:axId val="2078609112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4798,7 +4759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137469640"/>
+        <c:crossAx val="2078614936"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4815,7 +4776,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4870,7 +4830,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5165,11 +5124,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2138416088"/>
-        <c:axId val="2138419208"/>
+        <c:axId val="2109705224"/>
+        <c:axId val="2109708344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2138416088"/>
+        <c:axId val="2109705224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5178,7 +5137,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138419208"/>
+        <c:crossAx val="2109708344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5186,7 +5145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138419208"/>
+        <c:axId val="2109708344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5209,21 +5168,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138416088"/>
+        <c:crossAx val="2109705224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5273,7 +5230,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5568,11 +5524,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2138461096"/>
-        <c:axId val="2138464216"/>
+        <c:axId val="2109027944"/>
+        <c:axId val="2109024808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2138461096"/>
+        <c:axId val="2109027944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5581,7 +5537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138464216"/>
+        <c:crossAx val="2109024808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5589,7 +5545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2138464216"/>
+        <c:axId val="2109024808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5612,21 +5568,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2138461096"/>
+        <c:crossAx val="2109027944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5980,11 +5934,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2061539800"/>
-        <c:axId val="-2070351256"/>
+        <c:axId val="2108970440"/>
+        <c:axId val="2108967304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2061539800"/>
+        <c:axId val="2108970440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5993,7 +5947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070351256"/>
+        <c:crossAx val="2108967304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6001,7 +5955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070351256"/>
+        <c:axId val="2108967304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6031,7 +5985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061539800"/>
+        <c:crossAx val="2108970440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6388,11 +6342,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2071776008"/>
-        <c:axId val="-2061552280"/>
+        <c:axId val="2108925112"/>
+        <c:axId val="2108921976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2071776008"/>
+        <c:axId val="2108925112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6401,7 +6355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2061552280"/>
+        <c:crossAx val="2108921976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6409,7 +6363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2061552280"/>
+        <c:axId val="2108921976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6439,7 +6393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071776008"/>
+        <c:crossAx val="2108925112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6791,11 +6745,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2132733752"/>
-        <c:axId val="-2062157848"/>
+        <c:axId val="2108881720"/>
+        <c:axId val="2108878584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2132733752"/>
+        <c:axId val="2108881720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6804,7 +6758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2062157848"/>
+        <c:crossAx val="2108878584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6812,7 +6766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2062157848"/>
+        <c:axId val="2108878584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6842,7 +6796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132733752"/>
+        <c:crossAx val="2108881720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6892,7 +6846,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7109,12 +7062,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137512664"/>
-        <c:axId val="2137515640"/>
-        <c:axId val="2137521480"/>
+        <c:axId val="2078572568"/>
+        <c:axId val="2078569576"/>
+        <c:axId val="2078563752"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137512664"/>
+        <c:axId val="2078572568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7123,7 +7076,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137515640"/>
+        <c:crossAx val="2078569576"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7131,7 +7084,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137515640"/>
+        <c:axId val="2078569576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7162,19 +7115,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137512664"/>
+        <c:crossAx val="2078572568"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137521480"/>
+        <c:axId val="2078563752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7183,7 +7135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137515640"/>
+        <c:crossAx val="2078569576"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7200,7 +7152,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7444,12 +7395,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137583240"/>
-        <c:axId val="2137586216"/>
-        <c:axId val="2137592056"/>
+        <c:axId val="2078503320"/>
+        <c:axId val="2078500328"/>
+        <c:axId val="2078494504"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137583240"/>
+        <c:axId val="2078503320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7458,7 +7409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137586216"/>
+        <c:crossAx val="2078500328"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7466,7 +7417,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137586216"/>
+        <c:axId val="2078500328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7503,12 +7454,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137583240"/>
+        <c:crossAx val="2078503320"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137592056"/>
+        <c:axId val="2078494504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7517,7 +7468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137586216"/>
+        <c:crossAx val="2078500328"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7777,12 +7728,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137630760"/>
-        <c:axId val="2137633736"/>
-        <c:axId val="2137639576"/>
+        <c:axId val="2078456360"/>
+        <c:axId val="2078453368"/>
+        <c:axId val="2078447544"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137630760"/>
+        <c:axId val="2078456360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7791,7 +7742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137633736"/>
+        <c:crossAx val="2078453368"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7799,7 +7750,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137633736"/>
+        <c:axId val="2078453368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7836,12 +7787,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137630760"/>
+        <c:crossAx val="2078456360"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137639576"/>
+        <c:axId val="2078447544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7850,7 +7801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137633736"/>
+        <c:crossAx val="2078453368"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8110,12 +8061,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137676824"/>
-        <c:axId val="2137679800"/>
-        <c:axId val="2137685640"/>
+        <c:axId val="2078410264"/>
+        <c:axId val="2078407272"/>
+        <c:axId val="2078401448"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137676824"/>
+        <c:axId val="2078410264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8124,7 +8075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137679800"/>
+        <c:crossAx val="2078407272"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8132,7 +8083,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137679800"/>
+        <c:axId val="2078407272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8169,12 +8120,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137676824"/>
+        <c:crossAx val="2078410264"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137685640"/>
+        <c:axId val="2078401448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8183,7 +8134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137679800"/>
+        <c:crossAx val="2078407272"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8242,7 +8193,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8444,12 +8394,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137747432"/>
-        <c:axId val="2137750408"/>
-        <c:axId val="2137756248"/>
+        <c:axId val="2078339480"/>
+        <c:axId val="2078336488"/>
+        <c:axId val="2078330664"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137747432"/>
+        <c:axId val="2078339480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8458,7 +8408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137750408"/>
+        <c:crossAx val="2078336488"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8466,7 +8416,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137750408"/>
+        <c:axId val="2078336488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8497,19 +8447,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137747432"/>
+        <c:crossAx val="2078339480"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137756248"/>
+        <c:axId val="2078330664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8518,7 +8467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137750408"/>
+        <c:crossAx val="2078336488"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8535,7 +8484,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8578,7 +8526,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8780,12 +8727,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137794888"/>
-        <c:axId val="2137797864"/>
-        <c:axId val="2137803704"/>
+        <c:axId val="2078292024"/>
+        <c:axId val="2078289032"/>
+        <c:axId val="2078283208"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137794888"/>
+        <c:axId val="2078292024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8794,7 +8741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137797864"/>
+        <c:crossAx val="2078289032"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8802,7 +8749,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137797864"/>
+        <c:axId val="2078289032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8833,19 +8780,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137794888"/>
+        <c:crossAx val="2078292024"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137803704"/>
+        <c:axId val="2078283208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8854,7 +8800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137797864"/>
+        <c:crossAx val="2078289032"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8871,7 +8817,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8914,7 +8859,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9116,12 +9060,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2137841224"/>
-        <c:axId val="2137844200"/>
-        <c:axId val="2137850040"/>
+        <c:axId val="2109090456"/>
+        <c:axId val="2109093432"/>
+        <c:axId val="2109099272"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="2137841224"/>
+        <c:axId val="2109090456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9130,7 +9074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137844200"/>
+        <c:crossAx val="2109093432"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9138,7 +9082,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137844200"/>
+        <c:axId val="2109093432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9169,19 +9113,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137841224"/>
+        <c:crossAx val="2109090456"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2137850040"/>
+        <c:axId val="2109099272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9190,7 +9133,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137844200"/>
+        <c:crossAx val="2109093432"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9207,7 +9150,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -18831,7 +18773,7 @@
   <dimension ref="B13:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
